--- a/src/main/resources/excel/present_verb.xlsx
+++ b/src/main/resources/excel/present_verb.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="87"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="86"/>
   </bookViews>
   <sheets>
     <sheet name="Greetings3" sheetId="1" state="visible" r:id="rId2"/>
@@ -6034,7 +6034,7 @@
     <t xml:space="preserve">Es mi responsabilidad. Lo siento</t>
   </si>
   <si>
-    <t xml:space="preserve">You're right! It's my fault. I'm sorry</t>
+    <t xml:space="preserve">You're right It's my fault. I'm sorry</t>
   </si>
   <si>
     <t xml:space="preserve">¡Tienes razón! Que es mi culpa. Lo siento</t>
@@ -6538,7 +6538,7 @@
       <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -6626,7 +6626,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -6699,7 +6699,7 @@
       <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="67.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="1" width="61.12"/>
@@ -6871,7 +6871,7 @@
       <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -6984,7 +6984,7 @@
       <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="55.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="80.77"/>
@@ -7176,7 +7176,7 @@
       <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -7249,7 +7249,7 @@
       <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="39.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="41.31"/>
@@ -7421,7 +7421,7 @@
       <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -7453,7 +7453,7 @@
       <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -7598,7 +7598,7 @@
       <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="62.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="75.03"/>
@@ -7810,7 +7810,7 @@
       <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -7898,7 +7898,7 @@
       <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -8043,7 +8043,7 @@
       <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="50.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="55.57"/>
@@ -8223,7 +8223,7 @@
       <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -8336,7 +8336,7 @@
       <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="51.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="1" width="67.8"/>
@@ -8528,7 +8528,7 @@
       <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -8672,7 +8672,7 @@
       <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -8785,7 +8785,7 @@
       <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="48.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="50.94"/>
@@ -9037,7 +9037,7 @@
       <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -9174,7 +9174,7 @@
       <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="56.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="61.5"/>
@@ -9379,7 +9379,7 @@
       <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -9516,7 +9516,7 @@
       <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="55.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="81.7"/>
@@ -9721,7 +9721,7 @@
       <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="67.43"/>
   </cols>
@@ -9960,7 +9960,7 @@
       <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -10073,7 +10073,7 @@
       <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="47.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="83.18"/>
@@ -10265,7 +10265,7 @@
       <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -10329,7 +10329,7 @@
       <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -10474,7 +10474,7 @@
       <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="50.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="57.61"/>
@@ -10702,7 +10702,7 @@
       <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -10831,7 +10831,7 @@
       <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="61.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="62.43"/>
@@ -11023,7 +11023,7 @@
       <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -11096,7 +11096,7 @@
       <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="43.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="48.16"/>
@@ -11269,7 +11269,7 @@
       <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="54.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="59.65"/>
@@ -11393,7 +11393,7 @@
       <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -11490,7 +11490,7 @@
       <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="40.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="48.54"/>
@@ -11615,7 +11615,7 @@
       <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="58.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="67.8"/>
@@ -11692,7 +11692,7 @@
       <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="60.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="68.92"/>
@@ -11816,7 +11816,7 @@
       <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -11905,7 +11905,7 @@
       <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="46.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="60.39"/>
@@ -12085,7 +12085,7 @@
       <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -12150,7 +12150,7 @@
       <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="60.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="67.07"/>
@@ -12319,7 +12319,7 @@
       <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="44.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="68.92"/>
@@ -12460,7 +12460,7 @@
       <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="57.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="69.66"/>
@@ -12609,7 +12609,7 @@
       <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="61.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="55.57"/>
@@ -12750,7 +12750,7 @@
       <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="48.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="72.06"/>
@@ -12935,7 +12935,7 @@
       <selection pane="topLeft" activeCell="B34" activeCellId="0" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="56.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="60.78"/>
@@ -13084,7 +13084,7 @@
       <selection pane="topLeft" activeCell="B41" activeCellId="0" sqref="B41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="45.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="52.42"/>
@@ -13232,7 +13232,7 @@
       <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -13305,7 +13305,7 @@
       <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="35.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="52.98"/>
@@ -13477,7 +13477,7 @@
       <selection pane="topLeft" activeCell="D29" activeCellId="0" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -13606,7 +13606,7 @@
       <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="63.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="64.09"/>
@@ -13806,7 +13806,7 @@
       <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -13847,7 +13847,7 @@
       <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="47.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="66.34"/>
@@ -14004,7 +14004,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="35.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="38.36"/>
@@ -14153,7 +14153,7 @@
       <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="52.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="57.61"/>
@@ -14293,7 +14293,7 @@
       <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -14405,7 +14405,7 @@
       <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -14470,7 +14470,7 @@
       <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="52.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="47.97"/>
@@ -14639,7 +14639,7 @@
       <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="57.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="76.69"/>
@@ -14779,7 +14779,7 @@
       <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -14916,7 +14916,7 @@
       <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="55.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="62.43"/>
@@ -15120,7 +15120,7 @@
       <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -15160,7 +15160,7 @@
       <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -15305,7 +15305,7 @@
       <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="52.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="57.23"/>
@@ -15521,7 +15521,7 @@
       <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -15562,7 +15562,7 @@
       <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="45.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="48.72"/>
@@ -15719,7 +15719,7 @@
       <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="47.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="60.02"/>
@@ -15911,7 +15911,7 @@
       <selection pane="topLeft" activeCell="C25" activeCellId="0" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -15984,7 +15984,7 @@
       <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="50.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="58.72"/>
@@ -16156,7 +16156,7 @@
       <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -16277,7 +16277,7 @@
       <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="49.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="68.54"/>
@@ -16474,7 +16474,7 @@
       <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="61.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="76.69"/>
@@ -16622,7 +16622,7 @@
       <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -16671,7 +16671,7 @@
       <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="47.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="58.17"/>
@@ -16831,7 +16831,7 @@
       <selection pane="topLeft" activeCell="C53" activeCellId="0" sqref="C53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -16904,7 +16904,7 @@
       <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="56.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="62.43"/>
@@ -17077,7 +17077,7 @@
       <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="67.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="80.58"/>
@@ -17225,7 +17225,7 @@
       <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -17345,7 +17345,7 @@
       <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -17386,7 +17386,7 @@
       <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="63.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="66.68"/>
@@ -17543,7 +17543,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="51.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="77.06"/>
@@ -17692,7 +17692,7 @@
       <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="39.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="51.87"/>
@@ -17801,7 +17801,7 @@
       <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="59.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="70.58"/>
@@ -17949,7 +17949,7 @@
       <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -18062,7 +18062,7 @@
       <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="44.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="61.12"/>
@@ -18250,11 +18250,14 @@
   </sheetPr>
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="43.72"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -18339,11 +18342,11 @@
   </sheetPr>
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B25" activeCellId="0" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="53.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="62.24"/>
@@ -18524,7 +18527,7 @@
       <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="56.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="61.87"/>
